--- a/CashFlow/CERN_cashflow.xlsx
+++ b/CashFlow/CERN_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>81000000.0</v>
+        <v>960000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>81000000.0</v>
+        <v>8184000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>65002000.0</v>
+        <v>5489000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>46949000.0</v>
+        <v>631000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>24877000.0</v>
+        <v>1855000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1576000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-62663000.0</v>
+        <v>1050000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-66196000.0</v>
+        <v>1087000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-4507000.0</v>
+        <v>863592000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>37006000.0</v>
+        <v>602855000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>55768000.0</v>
+        <v>334156000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>20709000.0</v>
